--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>91.1369967353351</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>127.3679339628222</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>145.3129274435881</v>
       </c>
       <c r="E2">
-        <v>156</v>
+        <v>155.734922053209</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>110.2596756929998</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>152.6481160815642</v>
       </c>
       <c r="D3">
-        <v>172</v>
+        <v>171.7948606769434</v>
       </c>
       <c r="E3">
-        <v>186</v>
+        <v>185.1000274471107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>98.10551322810247</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>141.10191723647</v>
       </c>
       <c r="D4">
-        <v>163</v>
+        <v>162.7965677379082</v>
       </c>
       <c r="E4">
-        <v>177</v>
+        <v>176.7807258803518</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>76.26618851682456</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>103.7042077698815</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>113.4099841640455</v>
       </c>
       <c r="E5">
-        <v>123</v>
+        <v>123.0184044370315</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>67.06515550277362</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>90.96069586813786</v>
       </c>
       <c r="D6">
-        <v>101</v>
+        <v>100.4437278407853</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>107.6300106607524</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>7.210567491758278</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>9.662075413724656</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>10.69148570057467</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>11.397879639144</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>343</v>
+        <v>342.9336348477351</v>
       </c>
       <c r="C8">
-        <v>486</v>
+        <v>483.9432969501058</v>
       </c>
       <c r="D8">
-        <v>566</v>
+        <v>563.38277808048</v>
       </c>
       <c r="E8">
-        <v>610</v>
+        <v>608.0822332223942</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>97.93106153690282</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>132.3281512690647</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>146.2917903633075</v>
       </c>
       <c r="E9">
-        <v>157</v>
+        <v>156.9739476974102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>42.18158432580129</v>
       </c>
       <c r="C10">
-        <v>56</v>
+        <v>55.48839697489341</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>61.96800176324722</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>65.25496252721278</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7.750659366753535</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9.681968837488911</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>10.69186417006868</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>12.14826695821297</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>18.5224724752061</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>25.42504606204698</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>28.24126807874219</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>29.35038238180431</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>23.70708953324266</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>30.91395792474116</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>34.85533186473179</v>
       </c>
       <c r="E13">
-        <v>37</v>
+        <v>37.13588811466538</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.1369967353351</v>
+        <v>92.77637530925638</v>
       </c>
       <c r="C2">
-        <v>127.3679339628222</v>
+        <v>129.2961888546469</v>
       </c>
       <c r="D2">
-        <v>145.3129274435881</v>
+        <v>146.7296141771394</v>
       </c>
       <c r="E2">
-        <v>155.734922053209</v>
+        <v>156.6071550102643</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>110.2596756929998</v>
+        <v>112.300919584385</v>
       </c>
       <c r="C3">
-        <v>152.6481160815642</v>
+        <v>155.0118333993916</v>
       </c>
       <c r="D3">
-        <v>171.7948606769434</v>
+        <v>173.4922189206746</v>
       </c>
       <c r="E3">
-        <v>185.1000274471107</v>
+        <v>186.1451562353258</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98.10551322810247</v>
+        <v>99.80053510587648</v>
       </c>
       <c r="C4">
-        <v>141.10191723647</v>
+        <v>143.1871781758566</v>
       </c>
       <c r="D4">
-        <v>162.7965677379082</v>
+        <v>164.3706505210713</v>
       </c>
       <c r="E4">
-        <v>176.7807258803518</v>
+        <v>177.7673799622309</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>76.26618851682456</v>
+        <v>77.74082220157349</v>
       </c>
       <c r="C5">
-        <v>103.7042077698815</v>
+        <v>105.3708775452284</v>
       </c>
       <c r="D5">
-        <v>113.4099841640455</v>
+        <v>114.5548005703677</v>
       </c>
       <c r="E5">
-        <v>123.0184044370315</v>
+        <v>123.7224839653142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67.06515550277362</v>
+        <v>68.35171669744066</v>
       </c>
       <c r="C6">
-        <v>90.96069586813786</v>
+        <v>92.41243098372455</v>
       </c>
       <c r="D6">
-        <v>100.4437278407853</v>
+        <v>101.454178557908</v>
       </c>
       <c r="E6">
-        <v>107.6300106607524</v>
+        <v>108.2447638607194</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.210567491758278</v>
+        <v>7.351923235471475</v>
       </c>
       <c r="C7">
-        <v>9.662075413724656</v>
+        <v>9.818822877887328</v>
       </c>
       <c r="D7">
-        <v>10.69148570057467</v>
+        <v>10.79992752870543</v>
       </c>
       <c r="E7">
-        <v>11.397879639144</v>
+        <v>11.4633186530728</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>342.9336348477351</v>
+        <v>348.8314742863583</v>
       </c>
       <c r="C8">
-        <v>483.9432969501058</v>
+        <v>490.9312007096121</v>
       </c>
       <c r="D8">
-        <v>563.38277808048</v>
+        <v>568.6846132057784</v>
       </c>
       <c r="E8">
-        <v>608.0822332223942</v>
+        <v>611.4566408661268</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>97.93106153690282</v>
+        <v>99.8299696618147</v>
       </c>
       <c r="C9">
-        <v>132.3281512690647</v>
+        <v>134.4519058345597</v>
       </c>
       <c r="D9">
-        <v>146.2917903633075</v>
+        <v>147.7654275587027</v>
       </c>
       <c r="E9">
-        <v>156.9739476974102</v>
+        <v>157.8714744315296</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>42.18158432580129</v>
+        <v>43.02656128943718</v>
       </c>
       <c r="C10">
-        <v>55.48839697489341</v>
+        <v>56.40329214572002</v>
       </c>
       <c r="D10">
-        <v>61.96800176324722</v>
+        <v>62.60229058012804</v>
       </c>
       <c r="E10">
-        <v>65.25496252721278</v>
+        <v>65.63186724244187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.750659366753535</v>
+        <v>7.905522639184566</v>
       </c>
       <c r="C11">
-        <v>9.681968837488911</v>
+        <v>9.841183375702865</v>
       </c>
       <c r="D11">
-        <v>10.69186417006868</v>
+        <v>10.8011007964307</v>
       </c>
       <c r="E11">
-        <v>12.14826695821297</v>
+        <v>12.21835427678015</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18.5224724752061</v>
+        <v>18.90185688857558</v>
       </c>
       <c r="C12">
-        <v>25.42504606204698</v>
+        <v>25.85106063484142</v>
       </c>
       <c r="D12">
-        <v>28.24126807874219</v>
+        <v>28.53290377102535</v>
       </c>
       <c r="E12">
-        <v>29.35038238180431</v>
+        <v>29.52094279478744</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23.70708953324266</v>
+        <v>24.1823231006262</v>
       </c>
       <c r="C13">
-        <v>30.91395792474116</v>
+        <v>31.42402546282844</v>
       </c>
       <c r="D13">
-        <v>34.85533186473179</v>
+        <v>35.21227381206855</v>
       </c>
       <c r="E13">
-        <v>37.13588811466538</v>
+        <v>37.35046270140714</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99.80053510587648</v>
+        <v>99.80053510587651</v>
       </c>
       <c r="C4">
         <v>143.1871781758566</v>
       </c>
       <c r="D4">
-        <v>164.3706505210713</v>
+        <v>164.3706505210712</v>
       </c>
       <c r="E4">
         <v>177.7673799622309</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>77.74082220157349</v>
+        <v>77.74082220157351</v>
       </c>
       <c r="C5">
         <v>105.3708775452284</v>
       </c>
       <c r="D5">
-        <v>114.5548005703677</v>
+        <v>114.5548005703676</v>
       </c>
       <c r="E5">
         <v>123.7224839653142</v>
@@ -456,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>68.35171669744066</v>
+        <v>68.35171669744069</v>
       </c>
       <c r="C6">
-        <v>92.41243098372455</v>
+        <v>92.41243098372453</v>
       </c>
       <c r="D6">
         <v>101.454178557908</v>
@@ -476,7 +476,7 @@
         <v>7.351923235471475</v>
       </c>
       <c r="C7">
-        <v>9.818822877887328</v>
+        <v>9.818822877887326</v>
       </c>
       <c r="D7">
         <v>10.79992752870543</v>
@@ -496,7 +496,7 @@
         <v>490.9312007096121</v>
       </c>
       <c r="D8">
-        <v>568.6846132057784</v>
+        <v>568.6846132057782</v>
       </c>
       <c r="E8">
         <v>611.4566408661268</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>43.02656128943718</v>
+        <v>43.0265612894372</v>
       </c>
       <c r="C10">
-        <v>56.40329214572002</v>
+        <v>56.40329214572</v>
       </c>
       <c r="D10">
         <v>62.60229058012804</v>
@@ -541,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.905522639184566</v>
+        <v>7.905522639184568</v>
       </c>
       <c r="C11">
-        <v>9.841183375702865</v>
+        <v>9.841183375702862</v>
       </c>
       <c r="D11">
         <v>10.8011007964307</v>
